--- a/biology/Botanique/Parc_Cișmigiu/Parc_Cișmigiu.xlsx
+++ b/biology/Botanique/Parc_Cișmigiu/Parc_Cișmigiu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_Ci%C8%99migiu</t>
+          <t>Parc_Cișmigiu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Cișmigiu est le plus ancien et le plus central jardin public de Bucarest. Il a été inauguré en 1860.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_Ci%C8%99migiu</t>
+          <t>Parc_Cișmigiu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot Cișmigiu (lire tchiche'midjiou) vient de la langue turque. Un ceșme est une fontaine publique et un cișmegiu est une personne responsable de la construction et de l'entretien des fontaines publiques. Le nom de cișmegiu a remplacé l'ancienne référence de « Dura », du nom du lac existant qui s'appelait lacul lui Dura neguțătorul et qui prit le nom de lac Cișmigiu.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_Ci%C8%99migiu</t>
+          <t>Parc_Cișmigiu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de Cișmigiu est situé dans le centre-ville de Bucarest. Il a une superficie d'environ 17 hectares et il est bordé par plusieurs grandes artères : le boulevard Regina Elisabeta sur lequel est située la porte d'entrée principale du parc, face à l'hôtel de ville, l'avenue Schitu Măgureanu et la rue Știrbei Vodă près du palais Crețulescu. La partie sud du jardin fait face au collège national Gheorghe Lazăr.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_Ci%C8%99migiu</t>
+          <t>Parc_Cișmigiu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1779, le prince de la Valachie, Alexandre Ypsilantis, ordonna la construction de deux fontaines à Bucarest, appelées Cișmele, qui a donné ensuite l'appellation Cișmigiu.
 En 1837, les marais voisins sont drainés, puis en 1847, fut aménagé un lac d'agrément, le lac Cișmigiu, à l'emplacement du lac naturel nommé Balta lui Dura neguțătorul (étang de Dura le marchand) connu pour la pêche et ses colonies de canards colvert.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parc_Ci%C8%99migiu</t>
+          <t>Parc_Cișmigiu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,14 +629,124 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La rotonde des écrivains
-La "Rotonda Scriitorilor" (Rotonde des écrivains) est une allée circulaire ornée de bustes en pierre représentant douze écrivains : Vasile Alecsandri, Nicolae Bălcescu, Ion Luca Caragiale, George Coșbuc, Ion Creangă, Mihai Eminescu, Bogdan Petriceicu Hasdeu, Ștefan Octavian Iosif, Titu Maiorescu, Alexandru Odobescu, Alexandru Vlahuță et Duiliu Zamfirescu.
-Le Monument des Héros français
-Le "monument aux Héros Français" commémore les soldats français morts au combat aux côtés de l'armée roumaine durant la première guerre mondiale et de la guerre hungaro-roumaine de 1919.
-La citadelle
-Dans le jardin Cismigiu se situe un lieu particulier dénommé La Citadelle dans lequel s'élèvent les ruines d'un monastère construit en 1756 sur les fonds du poète Văcărescu. À l'intérieur de ce monastère, débute un passage souterrain reliant jadis le palais Crețulescu à la rivière Dâmbovița.
-Autres lieux
-Le parc dispose de plusieurs aires de jeux, d'une location de barques, d'un grand restaurant au bord de l'eau et de plusieurs cafés, glaciers et snacks.
+          <t>La rotonde des écrivains</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La "Rotonda Scriitorilor" (Rotonde des écrivains) est une allée circulaire ornée de bustes en pierre représentant douze écrivains : Vasile Alecsandri, Nicolae Bălcescu, Ion Luca Caragiale, George Coșbuc, Ion Creangă, Mihai Eminescu, Bogdan Petriceicu Hasdeu, Ștefan Octavian Iosif, Titu Maiorescu, Alexandru Odobescu, Alexandru Vlahuță et Duiliu Zamfirescu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parc_Cișmigiu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Ci%C8%99migiu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le Monument des Héros français</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le "monument aux Héros Français" commémore les soldats français morts au combat aux côtés de l'armée roumaine durant la première guerre mondiale et de la guerre hungaro-roumaine de 1919.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parc_Cișmigiu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Ci%C8%99migiu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La citadelle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le jardin Cismigiu se situe un lieu particulier dénommé La Citadelle dans lequel s'élèvent les ruines d'un monastère construit en 1756 sur les fonds du poète Văcărescu. À l'intérieur de ce monastère, débute un passage souterrain reliant jadis le palais Crețulescu à la rivière Dâmbovița.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Parc_Cișmigiu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Ci%C8%99migiu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres lieux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc dispose de plusieurs aires de jeux, d'une location de barques, d'un grand restaurant au bord de l'eau et de plusieurs cafés, glaciers et snacks.
 </t>
         </is>
       </c>
